--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Retífica-2NA, Leonardo-Retífica-2NA, Leonardo-Retífica-2NA, Leonardo-Retífica-2NA]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[leonardo-M.Maq.E.I.-2NA, leonardo-M.Maq.E.I.-2NA, leonardo-M.Maq.E.I.-2NA, leonardo-M.Maq.E.I.-2NA]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Euclides-Soldagem-2NA, Euclides-Soldagem-2NA, Euclides-Soldagem-2NA, Euclides-Soldagem-2NA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC-2NA, Paulo Rob.-Usin. CNC-2NA, Paulo Rob.-Usin. CNC-2NA, Paulo Rob.-Usin. CNC-2NA]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Bosco-Fundição-2NA, João Bosco-Fundição-2NA, João Bosco-Fundição-2NA, João Bosco-Fundição-2NA]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. Int.-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C. Hidráulica-2NA, Guilherme-C. Hidráulica-2NA, Guilherme-C. Hidráulica-2NA, Guilherme-C. Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2-2NA, Ismail-Metrologia 2-2NA, Ismail-Metrologia 2-2NA, Ismail-Metrologia 2-2NA]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem-2NA, Aderci-Fresagem-2NA, Aderci-Fresagem-2NA, Aderci-Fresagem-2NA]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C.L.P.-2NA, Guilherme-C.L.P.-2NA, Guilherme-C.L.P.-2NA, Guilherme-C.L.P.-2NA]</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. Int.-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M.S.R.A.C.-2NA, Leandro-M.S.R.A.C.-2NA, Leandro-M.S.R.A.C.-2NA, Leandro-M.S.R.A.C.-2NA]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C. Pneumática-2NA, Guilherme-C. Pneumática-2NA, Guilherme-C. Pneumática-2NA, Guilherme-C. Pneumática-2NA]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-CAD / CAM-2NA, Aderci-CAD / CAM-2NA, Aderci-CAD / CAM-2NA, Aderci-CAD / CAM-2NA]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t>[Ismail-Metrologia 2-2NA, Euclides-Soldagem-2NA, Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>[Euclides-Soldagem-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, Leonardo-M.Maq.E.I.-2NA]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Claudinei-Des. Maq. Cad-</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica-2NA, Leonardo-Retífica-2NA, Leonardo-Retífica-2NA, Leonardo-Retífica-2NA]</t>
+          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[leonardo-M.Maq.E.I.-2NA, leonardo-M.Maq.E.I.-2NA, leonardo-M.Maq.E.I.-2NA, leonardo-M.Maq.E.I.-2NA]</t>
+          <t>[-, -, -, Leonardo-M.Maq.E.I.-2NA]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>[Ismail-Metrologia 2-2NA, Euclides-Soldagem-2NA, Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[Euclides-Soldagem-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, João Bosco-Fundição-2NA]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Claudinei-Des. Maq. Cad-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Claudinei-Elemaq.-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[Euclides-Soldagem-2NA, Euclides-Soldagem-2NA, Euclides-Soldagem-2NA, Euclides-Soldagem-2NA]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[Paulo Rob.-Usin. CNC-2NA, Paulo Rob.-Usin. CNC-2NA, Paulo Rob.-Usin. CNC-2NA, Paulo Rob.-Usin. CNC-2NA]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[João Bosco-Fundição-2NA, João Bosco-Fundição-2NA, João Bosco-Fundição-2NA, João Bosco-Fundição-2NA]</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Guilherme-C. Hidráulica-2NA, Guilherme-C. Hidráulica-2NA, Guilherme-C. Hidráulica-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Ismail-Metrologia 2-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, João Bosco-Fundição-2NA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2-2NA, Ismail-Metrologia 2-2NA, Ismail-Metrologia 2-2NA, Ismail-Metrologia 2-2NA]</t>
+          <t>Claudinei-Des. Maq. Cad-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-2NA, Aderci-Fresagem-2NA, Aderci-Fresagem-2NA, Aderci-Fresagem-2NA]</t>
+          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Guilherme-C.L.P.-2NA, Guilherme-C.L.P.-2NA, Guilherme-C.L.P.-2NA, Guilherme-C.L.P.-2NA]</t>
+          <t>[Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA, Leonardo-M.Maq.E.I.-2NA, -]</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, João Bosco-Fundição-2NA]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C.-2NA, Leandro-M.S.R.A.C.-2NA, Leandro-M.S.R.A.C.-2NA, Leandro-M.S.R.A.C.-2NA]</t>
+          <t>Claudinei-Elemaq.-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Guilherme-C. Pneumática-2NA, Guilherme-C. Pneumática-2NA, Guilherme-C. Pneumática-2NA, Guilherme-C. Pneumática-2NA]</t>
+          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Aderci-CAD / CAM-2NA, Aderci-CAD / CAM-2NA, Aderci-CAD / CAM-2NA, Aderci-CAD / CAM-2NA]</t>
+          <t>[Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA, Leonardo-M.Maq.E.I.-2NA, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2-2NA, Euclides-Soldagem-2NA, Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA]</t>
+          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, Leonardo-M.Maq.E.I.-2NA]</t>
+          <t>[João Bosco-Fundição-2NA, Leandro-M.S.R.A.C.-2NA, Paulo Rob.-Usin. CNC-2NA, Euclides-Soldagem-2NA]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
+          <t>[Paulo Rob.-Usin. CNC-2NA, Leandro-M.S.R.A.C.-2NA, João Bosco-Fundição-2NA, Euclides-Soldagem-2NA]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, -, -, Leonardo-M.Maq.E.I.-2NA]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2-2NA, Euclides-Soldagem-2NA, Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA]</t>
+          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, João Bosco-Fundição-2NA]</t>
+          <t>[João Bosco-Fundição-2NA, Leandro-M.S.R.A.C.-2NA, Paulo Rob.-Usin. CNC-2NA, Euclides-Soldagem-2NA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
+          <t>[Paulo Rob.-Usin. CNC-2NA, Leandro-M.S.R.A.C.-2NA, João Bosco-Fundição-2NA, Euclides-Soldagem-2NA]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Claudinei-Des. Maq. Cad-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Euclides-Gest. Int.-</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[Ismail-Metrologia 2-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, João Bosco-Fundição-2NA]</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Claudinei-Des. Maq. Cad-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA, Leonardo-M.Maq.E.I.-2NA, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Claudinei-Des. Maq. Cad-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Euclides-Gest. Int.-</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[Ismail-Metrologia 2-2NA, Aderci-Fresagem-2NA, Paulo Rob.-Usin. CNC-2NA, João Bosco-Fundição-2NA]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Claudinei-Elemaq.-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[Guilherme-C.pneumática-2NA, Guilherme-C.L.P.-2NA, Aderci-CAD/CAM-2NA, Guilherme-C. Hidráulica-2NA]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[Leandro-M.S.R.A.C.-2NA, Leonardo-Retífica-2NA, Leonardo-M.Maq.E.I.-2NA, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
+          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[João Bosco-Fundição-2NA, Leandro-M.S.R.A.C.-2NA, Paulo Rob.-Usin. CNC-2NA, Euclides-Soldagem-2NA]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC-2NA, Leandro-M.S.R.A.C.-2NA, João Bosco-Fundição-2NA, Euclides-Soldagem-2NA]</t>
+          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
+          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[João Bosco-Fundição-2NA, Leandro-M.S.R.A.C.-2NA, Paulo Rob.-Usin. CNC-2NA, Euclides-Soldagem-2NA]</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC-2NA, Leandro-M.S.R.A.C.-2NA, João Bosco-Fundição-2NA, Euclides-Soldagem-2NA]</t>
+          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
+          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Euclides-Gest. Int.-</t>
+          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
     </row>
@@ -1081,31 +1081,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-2NA, Leonardo-M.Maq.E.I.-2NA, Ismail-Metrologia 2-2NA, Aderci-CAD/CAM-2NA]</t>
+          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad-</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Euclides-Gest. Int.-</t>
+          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Guilherme-C.L.P.-2NA, Leonardo-Retífica-2NA, Guilherme-C.pneumática-2NA, Guilherme-C. Hidráulica-2NA]</t>
+          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Claudinei-Elemaq.-</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
+          <t>[Euclides-Soldagem, Guilherme-C.L.P., João Bosco-Fundição, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>[Leandro-M.S.R.A.C., Leonardo-M.Maq.E.I., Leonardo-Retífica, Aderci-CAD/CAM]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
+          <t>[João Bosco-Fundição, Ismail-Metrologia 2, Leandro-M.S.R.A.C., Aderci-CAD/CAM]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.L.P., Guilherme-C. Hidráulica, Leonardo-Retífica]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
+          <t>[Euclides-Soldagem, Guilherme-C.pneumática, Aderci-CAD/CAM, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
+          <t>[-, Ismail-Metrologia 2, Leandro-M.S.R.A.C., Guilherme-C.pneumática]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.L.P., Guilherme-C. Hidráulica, Guilherme-C.pneumática]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
+          <t>[Euclides-Soldagem, Guilherme-C.pneumática, Aderci-CAD/CAM, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
+          <t>[-, Ismail-Metrologia 2, -, -]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.L.P., Guilherme-C. Hidráulica, Leonardo-M.Maq.E.I.]</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Leandro-M.S.R.A.C., Paulo Rob.-Usin. CNC, Aderci-CAD/CAM]</t>
+          <t>[Euclides-Soldagem, João Bosco-Fundição, Leandro-M.S.R.A.C., Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Aderci-Fresagem, Leonardo-M.Maq.E.I., Ismail-Metrologia 2]</t>
+          <t>[João Bosco-Fundição, Ismail-Metrologia 2, Leonardo-Retífica, Leonardo-M.Maq.E.I.]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C.L.P., Guilherme-C. Hidráulica]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>[Paulo Rob.-Usin. CNC, Leonardo-Retífica, Guilherme-C. Hidráulica, Leonardo-M.Maq.E.I.]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Guilherme-C.L.P., João Bosco-Fundição, Aderci-Fresagem]</t>
+          <t>[Euclides-Soldagem, João Bosco-Fundição, Guilherme-C. Hidráulica, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Leonardo-M.Maq.E.I., Leonardo-Retífica, Aderci-CAD/CAM]</t>
+          <t>[Ismail-Metrologia 2, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.pneumática]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[João Bosco-Fundição, Ismail-Metrologia 2, Leandro-M.S.R.A.C., Aderci-CAD/CAM]</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.L.P., Guilherme-C. Hidráulica, Leonardo-Retífica]</t>
+          <t>[Ismail-Metrologia 2, Leonardo-Retífica, Leonardo-M.Maq.E.I., Euclides-Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Guilherme-C.pneumática, Aderci-CAD/CAM, Aderci-Fresagem]</t>
+          <t>[Euclides-Soldagem, João Bosco-Fundição, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.pneumática]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, Ismail-Metrologia 2, Leandro-M.S.R.A.C., Guilherme-C.pneumática]</t>
+          <t>[-, -, Leandro-M.S.R.A.C., -]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.L.P., Guilherme-C. Hidráulica, Guilherme-C.pneumática]</t>
+          <t>[Leandro-M.S.R.A.C., Leonardo-Retífica, Leonardo-M.Maq.E.I., Euclides-Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1049,19 +1049,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, Guilherme-C.pneumática, Aderci-CAD/CAM, Aderci-Fresagem]</t>
+          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.pneumática]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Euclides-Gest. I</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[-, Ismail-Metrologia 2, -, -]</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Claudinei-Elem</t>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.L.P., Guilherme-C. Hidráulica, Leonardo-M.Maq.E.I.]</t>
+          <t>[Leandro-M.S.R.A.C., Leonardo-Retífica, Leonardo-M.Maq.E.I., Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, João Bosco-Fundição, Leandro-M.S.R.A.C., Aderci-Fresagem]</t>
+          <t>[Ismail-Metrologia 2, João Bosco-Fundição, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.L.P.]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Euclides-Gest. I</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[João Bosco-Fundição, Ismail-Metrologia 2, Leonardo-Retífica, Leonardo-M.Maq.E.I.]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Claudinei-Elem</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Leonardo-Retífica, Guilherme-C. Hidráulica, Leonardo-M.Maq.E.I.]</t>
+          <t>[Leandro-M.S.R.A.C., Leonardo-Retífica, Leonardo-M.Maq.E.I., -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, João Bosco-Fundição, Guilherme-C. Hidráulica, Ismail-Metrologia 2]</t>
+          <t>[Guilherme-C.L.P., Guilherme-C. Hidráulica, Ismail-Metrologia 2, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.pneumática]</t>
+          <t>[-, -, Leonardo-Retífica, Leonardo-M.Maq.E.I.]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>[Ismail-Metrologia 2, Guilherme-C. Hidráulica, Guilherme-C.pneumática, Guilherme-C.L.P.]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[João Bosco-Fundição, Aderci-Fresagem, Aderci-CAD/CAM, Leandro-M.S.R.A.C.]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t xml:space="preserve">Claudinei-Des. Maq. </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Claudinei-Elem</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[Ismail-Metrologia 2, Leonardo-Retífica, Leonardo-M.Maq.E.I., Euclides-Soldagem]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Euclides-Soldagem, João Bosco-Fundição, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.pneumática]</t>
+          <t>[Paulo Rob.-Usin. CNC, -, Leonardo-Retífica, Leonardo-M.Maq.E.I.]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, -, Leandro-M.S.R.A.C., -]</t>
+          <t>[Leonardo-M.Maq.E.I., Euclides-Soldagem, Ismail-Metrologia 2, Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>[João Bosco-Fundição, Aderci-Fresagem, Aderci-CAD/CAM, Leandro-M.S.R.A.C.]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., Leonardo-Retífica, Leonardo-M.Maq.E.I., Euclides-Soldagem]</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, João Bosco-Fundição, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.pneumática]</t>
+          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.pneumática, Guilherme-C. Hidráulica, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>[Guilherme-C.pneumática, Euclides-Soldagem, Aderci-CAD/CAM, Guilherme-C.L.P.]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>[Leonardo-Retífica, Aderci-Fresagem, Euclides-Soldagem, Leandro-M.S.R.A.C.]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Claudinei-Elem</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[Leandro-M.S.R.A.C., Leonardo-Retífica, Leonardo-M.Maq.E.I., Paulo Rob.-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, João Bosco-Fundição, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Aderci-Fresagem, Guilherme-C.L.P.]</t>
+          <t>[Leonardo-M.Maq.E.I., Leonardo-Retífica, João Bosco-Fundição, -]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>[Guilherme-C.pneumática, Euclides-Soldagem, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>[João Bosco-Fundição, Aderci-Fresagem, Aderci-CAD/CAM, Leandro-M.S.R.A.C.]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t xml:space="preserve">Claudinei-Des. Maq. </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[Leandro-M.S.R.A.C., Leonardo-Retífica, Leonardo-M.Maq.E.I., -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[Guilherme-C.L.P., Guilherme-C. Hidráulica, Ismail-Metrologia 2, Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, Leonardo-Retífica, Leonardo-M.Maq.E.I.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Guilherme-C. Hidráulica, Guilherme-C.pneumática, Guilherme-C.L.P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[João Bosco-Fundição, Aderci-Fresagem, Aderci-CAD/CAM, Leandro-M.S.R.A.C.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, -, Leonardo-Retífica, Leonardo-M.Maq.E.I.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Leonardo-M.Maq.E.I., Euclides-Soldagem, Ismail-Metrologia 2, Paulo Rob.-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[João Bosco-Fundição, Aderci-Fresagem, Aderci-CAD/CAM, Leandro-M.S.R.A.C.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Guilherme-C.pneumática, Guilherme-C. Hidráulica, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, Euclides-Soldagem, Aderci-CAD/CAM, Guilherme-C.L.P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Leonardo-Retífica, Aderci-Fresagem, Euclides-Soldagem, Leandro-M.S.R.A.C.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Leonardo-M.Maq.E.I., Leonardo-Retífica, João Bosco-Fundição, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática, Euclides-Soldagem, Guilherme-C. Hidráulica, Guilherme-C.L.P.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[João Bosco-Fundição, Aderci-Fresagem, Aderci-CAD/CAM, Leandro-M.S.R.A.C.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-M.Maq.E.I., João Bosco-Fundição, -, -]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Leonardo-Retífica, Euclides-Soldagem]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Leonardo-M.Maq.E.I., -, -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Bosco-Fundição, Leonardo-Retífica, Leandro-M.S.R.A.C.]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Euclides-Gest. I</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Leonardo-Retífica, Euclides-Soldagem]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, -, -, Ismail-Metrologia 2]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, João Bosco-Fundição, Paulo Rob.-Usin. CNC, Euclides-Soldagem]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">Claudinei-Des. Maq. </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-M.Maq.E.I., Aderci-CAD/CAM, Leandro-M.S.R.A.C., Euclides-Soldagem]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, -, -, Ismail-Metrologia 2]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Elem</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2, João Bosco-Fundição, Paulo Rob.-Usin. CNC, Leonardo-M.Maq.E.I.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M.S.R.A.C., -, -, -]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Aderci-CAD/CAM, Leandro-M.S.R.A.C., Leonardo-Retífica]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, -, -, Ismail-Metrologia 2]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>Ivan-Solda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Leonardo-M.Maq.E.I., João Bosco-Fundição, -, -]</t>
+          <t xml:space="preserve">Weslei-Cad / </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t xml:space="preserve">Weslei-Cad / </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Leonardo-Retífica, Euclides-Soldagem]</t>
+          <t>Guilherme-C. L.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Leonardo-M.Maq.E.I., -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, João Bosco-Fundição, Leonardo-Retífica, Leandro-M.S.R.A.C.]</t>
+          <t>Ivan-Solda</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Euclides-Gest. I</t>
+          <t>Guilherme-C. Hidrául</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-Usin. CNC, Aderci-CAD/CAM, Leonardo-Retífica, Euclides-Soldagem]</t>
+          <t>Guilherme-C. Hidrául</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, -, -, Ismail-Metrologia 2]</t>
+          <t>Ivan-Solda</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t>Ivan-Solda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, João Bosco-Fundição, Paulo Rob.-Usin. CNC, Euclides-Soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Claudinei-Des. Maq. </t>
+          <t>Guilherme-C. Hidrául</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Leonardo-M.Maq.E.I., Aderci-CAD/CAM, Leandro-M.S.R.A.C., Euclides-Soldagem]</t>
+          <t>Guilherme-C. L.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, -, -, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Claudinei-Elem</t>
+          <t xml:space="preserve">Weslei-Cad / </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, João Bosco-Fundição, Paulo Rob.-Usin. CNC, Leonardo-M.Maq.E.I.]</t>
+          <t xml:space="preserve">Weslei-Cad / </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R.A.C., -, -, -]</t>
+          <t>Guilherme-C. L.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, Aderci-CAD/CAM, Leandro-M.S.R.A.C., Leonardo-Retífica]</t>
+          <t>Guilherme-C. L.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, -, -, Ismail-Metrologia 2]</t>
+          <t>Guilherme-C. Hidrául</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2NA.xlsx
+++ b/data/turm/MEC-2NA.xlsx
@@ -985,22 +985,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ivan-Solda</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weslei-Cad / </t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weslei-Cad / </t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Guilherme-C. L.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ivan-Solda</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Guilherme-C. Hidrául</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guilherme-C. Hidrául</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ivan-Solda</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ivan-Solda</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Guilherme-C. Hidrául</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guilherme-C. L.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weslei-Cad / </t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weslei-Cad / </t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Guilherme-C. L.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guilherme-C. L.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Guilherme-C. Hidrául</t>
+          <t>-</t>
         </is>
       </c>
     </row>
